--- a/new_analysis/event_inds.xlsx
+++ b/new_analysis/event_inds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rui/Documents/Graduate/Research/SIDEX/SIDEX20/new_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3F7F8-7A3C-1D43-B930-A1F2F7EDF0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB7B1CE-8F3B-7C45-B1EB-8C719256BC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6801056-192A-7645-B62C-128048D5922F}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6801056-192A-7645-B62C-128048D5922F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/new_analysis/event_inds.xlsx
+++ b/new_analysis/event_inds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rui/Documents/Graduate/Research/SIDEX/SIDEX20/new_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB7B1CE-8F3B-7C45-B1EB-8C719256BC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58BD2A8-DF10-DC40-8E1A-2784872C60A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6801056-192A-7645-B62C-128048D5922F}"/>
   </bookViews>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B19C8-696D-0D4F-B7A3-823233F7C6D2}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <f t="shared" ref="A132:A189" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132">
@@ -2308,7 +2308,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>4562000</v>
+        <v>4652000</v>
       </c>
       <c r="C160">
         <v>4653500</v>
